--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3E766-D004-9D4A-B6FF-8929B823E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE455ED-43FF-B543-A41C-B617FD098AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="4" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="39200" yWindow="7420" windowWidth="35840" windowHeight="20660" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="2405">
   <si>
     <t>welded joint</t>
   </si>
@@ -7072,6 +7072,192 @@
   </si>
   <si>
     <t>clean</t>
+  </si>
+  <si>
+    <t>over-heating</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>overhaul</t>
+  </si>
+  <si>
+    <t>resample</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upgrade </t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>cleanse</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>examine</t>
+  </si>
+  <si>
+    <t>scrutinize</t>
+  </si>
+  <si>
+    <t>reinstate</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>reconstruct</t>
+  </si>
+  <si>
+    <t>renew</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>Normal ops [norm_ops]</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>operate</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>derate</t>
+  </si>
+  <si>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compress </t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>kick-off</t>
+  </si>
+  <si>
+    <t>initiate</t>
+  </si>
+  <si>
+    <t>commence</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>carry</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>perform</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>actuate</t>
+  </si>
+  <si>
+    <t>discharge</t>
+  </si>
+  <si>
+    <t>dislodge</t>
   </si>
 </sst>
 </file>
@@ -7200,9 +7386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7240,7 +7426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7346,7 +7532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7488,7 +7674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12641,9 +12827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -13741,193 +13927,274 @@
       <c r="A138" s="4" t="s">
         <v>2000</v>
       </c>
+      <c r="B138" s="4" t="s">
+        <v>2344</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>2010</v>
       </c>
+      <c r="B139" s="4" t="s">
+        <v>2345</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>1930</v>
       </c>
+      <c r="B140" s="4" t="s">
+        <v>2342</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>1962</v>
       </c>
+      <c r="B141" s="4" t="s">
+        <v>2346</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>1879</v>
       </c>
+      <c r="B142" s="4" t="s">
+        <v>2347</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>1898</v>
       </c>
+      <c r="B143" s="4" t="s">
+        <v>2348</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B144" s="4" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B145" s="4" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B146" s="4" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B147" s="4" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B148" s="4" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B149" s="4" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B150" s="4" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B151" s="4" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B152" s="4" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B153" s="4" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B154" s="4" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B155" s="4" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B156" s="4" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B157" s="4" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B158" s="4" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B159" s="4" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B160" s="4" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B161" s="4" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B162" s="4" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B163" s="4" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B164" s="4" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>1942</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>1965</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
         <v>1972</v>
       </c>
@@ -15046,7 +15313,7 @@
   <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -17191,22 +17458,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="23.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>2159</v>
       </c>
@@ -17216,8 +17484,11 @@
       <c r="C1" s="5" t="s">
         <v>2161</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="5" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1736</v>
       </c>
@@ -17227,8 +17498,11 @@
       <c r="C2" s="4" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="4" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1737</v>
       </c>
@@ -17238,8 +17512,11 @@
       <c r="C3" s="4" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="4" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1738</v>
       </c>
@@ -17249,8 +17526,11 @@
       <c r="C4" s="4" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="4" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>1739</v>
       </c>
@@ -17260,8 +17540,11 @@
       <c r="C5" s="4" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="4" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>1740</v>
       </c>
@@ -17271,8 +17554,11 @@
       <c r="C6" s="4" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="4" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>1741</v>
       </c>
@@ -17282,8 +17568,11 @@
       <c r="C7" s="4" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="4" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>1742</v>
       </c>
@@ -17293,8 +17582,11 @@
       <c r="C8" s="4" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="4" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>1743</v>
       </c>
@@ -17304,8 +17596,11 @@
       <c r="C9" s="4" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="4" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>1744</v>
       </c>
@@ -17315,8 +17610,11 @@
       <c r="C10" s="4" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="4" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>2280</v>
       </c>
@@ -17326,8 +17624,11 @@
       <c r="C11" s="4" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="4" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>1745</v>
       </c>
@@ -17337,8 +17638,11 @@
       <c r="C12" s="4" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="4" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>2338</v>
       </c>
@@ -17348,8 +17652,11 @@
       <c r="C13" s="4" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="4" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>2337</v>
       </c>
@@ -17359,8 +17666,11 @@
       <c r="C14" s="4" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="4" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>1746</v>
       </c>
@@ -17370,8 +17680,11 @@
       <c r="C15" s="4" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="4" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>1740</v>
       </c>
@@ -17381,8 +17694,11 @@
       <c r="C16" s="4" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="4" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>2320</v>
       </c>
@@ -17392,8 +17708,11 @@
       <c r="C17" s="4" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="4" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>2321</v>
       </c>
@@ -17403,8 +17722,11 @@
       <c r="C18" s="4" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="4" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>2322</v>
       </c>
@@ -17414,8 +17736,11 @@
       <c r="C19" s="4" t="s">
         <v>2178</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="4" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>2323</v>
       </c>
@@ -17425,8 +17750,11 @@
       <c r="C20" s="4" t="s">
         <v>2318</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="4" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>2324</v>
       </c>
@@ -17436,174 +17764,237 @@
       <c r="C21" s="4" t="s">
         <v>2319</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="4" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>2325</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>2326</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>2336</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="4" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>2335</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>2327</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="4" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>2328</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="4" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>2329</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="4" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>2330</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="4" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>2331</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="4" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>2334</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="D31" s="4" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>2333</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D32" s="4" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>2332</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D33" s="4" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D34" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D35" s="4" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D36" s="4" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D37" s="4" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>1818</v>
       </c>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE455ED-43FF-B543-A41C-B617FD098AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067FFF8-0B3C-634E-9CDC-360F5C12B327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39200" yWindow="7420" windowWidth="35840" windowHeight="20660" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="2414">
   <si>
     <t>welded joint</t>
   </si>
@@ -7258,6 +7258,33 @@
   </si>
   <si>
     <t>dislodge</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>energize</t>
+  </si>
+  <si>
+    <t>operational</t>
+  </si>
+  <si>
+    <t>abnormal ops [abn_ops]</t>
+  </si>
+  <si>
+    <t>warp</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>corrode</t>
+  </si>
+  <si>
+    <t>erode</t>
   </si>
 </sst>
 </file>
@@ -17458,11 +17485,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17471,10 +17498,11 @@
     <col min="2" max="2" width="26" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="14.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>2159</v>
       </c>
@@ -17487,8 +17515,11 @@
       <c r="D1" s="5" t="s">
         <v>2367</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="5" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1736</v>
       </c>
@@ -17499,10 +17530,13 @@
         <v>1794</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2393</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1737</v>
       </c>
@@ -17513,10 +17547,13 @@
         <v>1774</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2402</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1738</v>
       </c>
@@ -17527,10 +17564,13 @@
         <v>1796</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2394</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>1739</v>
       </c>
@@ -17541,10 +17581,13 @@
         <v>1839</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2389</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>1740</v>
       </c>
@@ -17555,10 +17598,13 @@
         <v>1797</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2390</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>1741</v>
       </c>
@@ -17569,10 +17615,13 @@
         <v>1840</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2382</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>1742</v>
       </c>
@@ -17583,10 +17632,13 @@
         <v>1783</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2371</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>1743</v>
       </c>
@@ -17597,10 +17649,13 @@
         <v>1795</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2395</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>1744</v>
       </c>
@@ -17611,10 +17666,13 @@
         <v>1776</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2379</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>2280</v>
       </c>
@@ -17625,10 +17683,13 @@
         <v>1842</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2403</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>1745</v>
       </c>
@@ -17639,10 +17700,13 @@
         <v>1781</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2384</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>2338</v>
       </c>
@@ -17653,10 +17717,13 @@
         <v>1843</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2406</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>2337</v>
       </c>
@@ -17667,10 +17734,13 @@
         <v>1793</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2392</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>1746</v>
       </c>
@@ -17681,10 +17751,13 @@
         <v>1782</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2399</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>1740</v>
       </c>
@@ -17692,10 +17765,10 @@
         <v>1786</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1838</v>
+        <v>1784</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -17706,10 +17779,10 @@
         <v>1798</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2385</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -17719,11 +17792,8 @@
       <c r="B18" s="4" t="s">
         <v>1812</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>1775</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>2386</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -17733,11 +17803,8 @@
       <c r="B19" s="4" t="s">
         <v>1789</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>2178</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -17747,9 +17814,6 @@
       <c r="B20" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>2318</v>
-      </c>
       <c r="D20" s="4" t="s">
         <v>2388</v>
       </c>
@@ -17761,11 +17825,8 @@
       <c r="B21" s="4" t="s">
         <v>1748</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>2319</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -17775,11 +17836,8 @@
       <c r="B22" s="4" t="s">
         <v>1765</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>2343</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -17789,11 +17847,8 @@
       <c r="B23" s="4" t="s">
         <v>1753</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>2372</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>2391</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -17803,11 +17858,8 @@
       <c r="B24" s="4" t="s">
         <v>1764</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>2373</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>2392</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -17817,11 +17869,8 @@
       <c r="B25" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>2404</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>2393</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -17832,7 +17881,7 @@
         <v>1833</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2394</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -17843,7 +17892,7 @@
         <v>1778</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -17854,7 +17903,7 @@
         <v>1826</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -17865,7 +17914,7 @@
         <v>1823</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>2397</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -17876,7 +17925,7 @@
         <v>1827</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -17887,7 +17936,7 @@
         <v>1754</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>2399</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.15">
@@ -17898,7 +17947,7 @@
         <v>1779</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>2400</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -17909,7 +17958,7 @@
         <v>1800</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>2401</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -17917,7 +17966,7 @@
         <v>1801</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>481</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -17925,7 +17974,7 @@
         <v>1802</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>2402</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -17933,7 +17982,7 @@
         <v>1820</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>2352</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -17941,23 +17990,32 @@
         <v>1824</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>2403</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>1828</v>
       </c>
+      <c r="D38" s="4" t="s">
+        <v>2375</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>1785</v>
       </c>
+      <c r="D39" s="4" t="s">
+        <v>2381</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>1836</v>
       </c>
+      <c r="D40" s="4" t="s">
+        <v>2376</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
@@ -18260,8 +18318,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B82">
-    <sortCondition ref="B1:B82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E10">
+    <sortCondition ref="E10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2E2542-AE60-8A42-965A-EA2366E5D8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AF4A26-F599-624B-A3B9-4FB803C3FB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44280" yWindow="1940" windowWidth="35840" windowHeight="20660" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="44280" yWindow="1940" windowWidth="35840" windowHeight="20660" activeTab="6" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="2414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="2429">
   <si>
     <t>welded joint</t>
   </si>
@@ -6696,9 +6696,6 @@
     <t>restage</t>
   </si>
   <si>
-    <t>prestage</t>
-  </si>
-  <si>
     <t>defuel</t>
   </si>
   <si>
@@ -7101,9 +7098,6 @@
     <t>re-pack</t>
   </si>
   <si>
-    <t>surveillance ops [surv_ops]</t>
-  </si>
-  <si>
     <t>evaluate</t>
   </si>
   <si>
@@ -7285,6 +7279,57 @@
   </si>
   <si>
     <t>Packaging defect</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>by-pass</t>
+  </si>
+  <si>
+    <t>terminate</t>
+  </si>
+  <si>
+    <t>plug</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>energize</t>
+  </si>
+  <si>
+    <t>energise</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>examination</t>
+  </si>
+  <si>
+    <t>surveillance ops [surv_ops_v]</t>
+  </si>
+  <si>
+    <t>verification</t>
+  </si>
+  <si>
+    <t>adjustment</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>pre-stage</t>
   </si>
 </sst>
 </file>
@@ -9433,7 +9478,7 @@
         <v>2064</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -11424,7 +11469,7 @@
         <v>301</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>447</v>
@@ -11464,7 +11509,7 @@
         <v>304</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>457</v>
@@ -11575,7 +11620,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>436</v>
@@ -11635,7 +11680,7 @@
         <v>986</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>450</v>
@@ -12132,7 +12177,7 @@
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C65" s="4" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>464</v>
@@ -12207,7 +12252,7 @@
         <v>1018</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.15">
@@ -12469,7 +12514,7 @@
         <v>1629</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -13299,10 +13344,10 @@
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
@@ -15811,11 +15856,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView zoomScale="182" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -15829,16 +15874,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2368</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>2369</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2370</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>2352</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -15846,13 +15891,13 @@
         <v>1863</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -15860,13 +15905,13 @@
         <v>1983</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2028</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -15874,13 +15919,13 @@
         <v>1973</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2035</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -15888,13 +15933,13 @@
         <v>1968</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2034</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -15905,10 +15950,10 @@
         <v>2024</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -15916,13 +15961,13 @@
         <v>1909</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -15930,13 +15975,13 @@
         <v>2053</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -15944,13 +15989,13 @@
         <v>1985</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2027</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -15961,7 +16006,7 @@
         <v>2215</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>352</v>
@@ -15972,13 +16017,13 @@
         <v>1980</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -15986,13 +16031,13 @@
         <v>2156</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2138</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -16000,13 +16045,13 @@
         <v>1925</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -16017,10 +16062,10 @@
         <v>2001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2396</v>
+        <v>2423</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -16028,13 +16073,13 @@
         <v>2052</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2044</v>
+        <v>2394</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -16042,13 +16087,13 @@
         <v>2049</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2036</v>
+        <v>2044</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -16056,13 +16101,13 @@
         <v>2001</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2272</v>
+        <v>2036</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -16070,13 +16115,13 @@
         <v>2051</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2033</v>
+        <v>2271</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -16084,13 +16129,13 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2135</v>
+        <v>2033</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -16101,10 +16146,10 @@
         <v>936</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2402</v>
+        <v>2135</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -16112,13 +16157,13 @@
         <v>349</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2249</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>2031</v>
+        <v>2248</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2400</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -16126,13 +16171,13 @@
         <v>1953</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2244</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>2132</v>
+        <v>2243</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>2031</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -16140,13 +16185,13 @@
         <v>1919</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2189</v>
+        <v>2132</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -16154,10 +16199,10 @@
         <v>2016</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2388</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -16165,10 +16210,10 @@
         <v>1964</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2397</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -16176,10 +16221,10 @@
         <v>1918</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2038</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -16187,10 +16232,10 @@
         <v>1969</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2188</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -16198,10 +16243,10 @@
         <v>1970</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2037</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -16209,10 +16254,10 @@
         <v>2055</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2398</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -16223,7 +16268,7 @@
         <v>2212</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2039</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -16234,7 +16279,7 @@
         <v>2210</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2399</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -16245,7 +16290,7 @@
         <v>2211</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2029</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -16256,7 +16301,7 @@
         <v>2214</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2139</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -16267,7 +16312,7 @@
         <v>2213</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2030</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -16275,10 +16320,10 @@
         <v>1952</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>2400</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -16286,10 +16331,10 @@
         <v>2057</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -16297,10 +16342,10 @@
         <v>1899</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2391</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -16308,10 +16353,10 @@
         <v>1923</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2136</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -16319,10 +16364,10 @@
         <v>310</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2043</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -16330,10 +16375,10 @@
         <v>1904</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>2032</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -16341,10 +16386,10 @@
         <v>1920</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2040</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -16352,10 +16397,10 @@
         <v>2058</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>2026</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -16363,10 +16408,10 @@
         <v>1941</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2251</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -16374,10 +16419,10 @@
         <v>1867</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>2403</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -16385,10 +16430,10 @@
         <v>1992</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>2276</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -16396,10 +16441,10 @@
         <v>2150</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -16407,10 +16452,10 @@
         <v>1870</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>2042</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -16418,10 +16463,10 @@
         <v>2131</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2134</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -16429,10 +16474,10 @@
         <v>1946</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>2041</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -16443,7 +16488,7 @@
         <v>2137</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -16454,7 +16499,7 @@
         <v>2209</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2045</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -16462,10 +16507,10 @@
         <v>1859</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>2025</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -16473,10 +16518,10 @@
         <v>2009</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -16484,10 +16529,10 @@
         <v>2012</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>2404</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -16495,7 +16540,10 @@
         <v>1852</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2327</v>
+        <v>2326</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>2047</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -16503,7 +16551,10 @@
         <v>1851</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2322</v>
+        <v>2321</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -16511,7 +16562,7 @@
         <v>1978</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -16519,7 +16570,7 @@
         <v>1861</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -16527,7 +16578,7 @@
         <v>1893</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -16535,7 +16586,7 @@
         <v>1894</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -16543,7 +16594,7 @@
         <v>1864</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -16551,7 +16602,7 @@
         <v>935</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -16559,7 +16610,7 @@
         <v>1903</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -16567,7 +16618,7 @@
         <v>1945</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -16575,7 +16626,7 @@
         <v>1963</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -16583,7 +16634,7 @@
         <v>1971</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -16599,7 +16650,7 @@
         <v>2017</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -16607,7 +16658,7 @@
         <v>1924</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -16615,7 +16666,7 @@
         <v>1865</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -16623,7 +16674,7 @@
         <v>2022</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2217</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -16631,7 +16682,7 @@
         <v>1871</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -16639,7 +16690,7 @@
         <v>1906</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -16647,7 +16698,7 @@
         <v>1878</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -16655,7 +16706,7 @@
         <v>1979</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -16663,7 +16714,7 @@
         <v>1922</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -16671,7 +16722,7 @@
         <v>1839</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -16679,7 +16730,7 @@
         <v>1998</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -16687,7 +16738,7 @@
         <v>1972</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -16695,7 +16746,7 @@
         <v>1974</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -16703,7 +16754,7 @@
         <v>1961</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -16711,7 +16762,7 @@
         <v>2159</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -16719,7 +16770,7 @@
         <v>1908</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -16727,7 +16778,7 @@
         <v>1907</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -16735,7 +16786,7 @@
         <v>2003</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -16743,7 +16794,7 @@
         <v>1873</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -16751,7 +16802,7 @@
         <v>1882</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -16759,7 +16810,7 @@
         <v>1959</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -16767,7 +16818,7 @@
         <v>1960</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -16775,7 +16826,7 @@
         <v>2154</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -16783,7 +16834,7 @@
         <v>1877</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -16791,7 +16842,7 @@
         <v>1849</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -16807,7 +16858,7 @@
         <v>2004</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -16815,7 +16866,7 @@
         <v>2018</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -16823,7 +16874,7 @@
         <v>1910</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -16831,7 +16882,7 @@
         <v>1888</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -16839,7 +16890,7 @@
         <v>1889</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -16855,7 +16906,7 @@
         <v>1846</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -16863,7 +16914,7 @@
         <v>1962</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -16871,7 +16922,7 @@
         <v>311</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -16879,7 +16930,7 @@
         <v>1994</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -16887,7 +16938,7 @@
         <v>1885</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -16895,7 +16946,7 @@
         <v>1975</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -16911,7 +16962,7 @@
         <v>2152</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -16919,7 +16970,7 @@
         <v>1905</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -16927,7 +16978,7 @@
         <v>2143</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -16943,7 +16994,7 @@
         <v>1935</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -16951,7 +17002,7 @@
         <v>2000</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -16959,7 +17010,7 @@
         <v>1955</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -16967,7 +17018,7 @@
         <v>1982</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -16975,7 +17026,7 @@
         <v>2019</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -16983,7 +17034,7 @@
         <v>2013</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -16991,7 +17042,7 @@
         <v>1942</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -16999,7 +17050,7 @@
         <v>1997</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -17007,7 +17058,7 @@
         <v>2011</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -17015,7 +17066,7 @@
         <v>1854</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -17023,7 +17074,7 @@
         <v>1912</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -17031,7 +17082,7 @@
         <v>1868</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -17055,7 +17106,7 @@
         <v>1943</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -17071,7 +17122,7 @@
         <v>1848</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -17079,7 +17130,7 @@
         <v>1847</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -17087,7 +17138,7 @@
         <v>2144</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -17095,7 +17146,7 @@
         <v>2149</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -17103,7 +17154,7 @@
         <v>2148</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -17111,7 +17162,7 @@
         <v>2147</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -17119,7 +17170,7 @@
         <v>1933</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -17127,7 +17178,7 @@
         <v>1934</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -17135,130 +17186,166 @@
         <v>1989</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>1990</v>
       </c>
+      <c r="B136" s="4" t="s">
+        <v>2412</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>1843</v>
       </c>
+      <c r="B137" s="4" t="s">
+        <v>2413</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>1991</v>
       </c>
+      <c r="B138" s="4" t="s">
+        <v>2414</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>1949</v>
       </c>
+      <c r="B139" s="4" t="s">
+        <v>2415</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>1841</v>
       </c>
+      <c r="B140" s="4" t="s">
+        <v>2243</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>1880</v>
       </c>
+      <c r="B141" s="4" t="s">
+        <v>2416</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>1995</v>
       </c>
+      <c r="B142" s="4" t="s">
+        <v>2417</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>1844</v>
       </c>
+      <c r="B143" s="4" t="s">
+        <v>2418</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B144" s="4" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B145" s="4" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B146" s="4" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B147" s="4" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>2140</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>1914</v>
       </c>
@@ -17564,9 +17651,19 @@
         <v>1842</v>
       </c>
     </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="4" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" s="4" t="s">
+        <v>2427</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C225">
-    <sortCondition ref="C1:C225"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C221">
+    <sortCondition ref="C1:C221"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17576,9 +17673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+    <sheetView zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17598,10 +17695,10 @@
         <v>2080</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -17615,7 +17712,7 @@
         <v>1785</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -17629,7 +17726,7 @@
         <v>1765</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -17643,7 +17740,7 @@
         <v>1787</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -17657,7 +17754,7 @@
         <v>1826</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -17671,7 +17768,7 @@
         <v>1788</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -17727,7 +17824,7 @@
         <v>1767</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -17757,7 +17854,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2199</v>
@@ -17768,7 +17865,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1799</v>
@@ -17796,23 +17893,23 @@
         <v>1750</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>1777</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>1789</v>
@@ -17823,7 +17920,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1801</v>
@@ -17834,7 +17931,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>1780</v>
@@ -17845,7 +17942,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1790</v>
@@ -17856,7 +17953,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>2204</v>
@@ -17867,7 +17964,7 @@
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>2202</v>
@@ -17875,7 +17972,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>1739</v>
@@ -17883,7 +17980,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1756</v>
@@ -17891,7 +17988,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1744</v>
@@ -17899,7 +17996,7 @@
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>2192</v>
@@ -17907,7 +18004,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>2193</v>
@@ -17915,7 +18012,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1755</v>
@@ -17923,7 +18020,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1822</v>
@@ -17931,7 +18028,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>1820</v>
@@ -17939,7 +18036,7 @@
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>2200</v>
@@ -17947,7 +18044,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1769</v>
@@ -18100,7 +18197,7 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AF4A26-F599-624B-A3B9-4FB803C3FB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AEA0F3-2005-B34A-9AE0-1CFE7D93CAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44280" yWindow="1940" windowWidth="35840" windowHeight="20660" activeTab="6" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="2429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2442">
   <si>
     <t>welded joint</t>
   </si>
@@ -7330,6 +7330,45 @@
   </si>
   <si>
     <t>pre-stage</t>
+  </si>
+  <si>
+    <t>erect</t>
+  </si>
+  <si>
+    <t>thermography</t>
+  </si>
+  <si>
+    <t>scaffolding</t>
+  </si>
+  <si>
+    <t>re-sample</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>over-heat</t>
+  </si>
+  <si>
+    <t>layup</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>diagnosis [diagn]</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
 </sst>
 </file>
@@ -9462,8 +9501,8 @@
   <dimension ref="A1:B377"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A378" sqref="A378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11408,7 +11447,9 @@
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A377" s="6"/>
+      <c r="A377" s="6" t="s">
+        <v>476</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A378">
@@ -15856,11 +15897,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -15869,10 +15910,11 @@
     <col min="2" max="2" width="32" style="4" customWidth="1"/>
     <col min="3" max="3" width="46.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="21.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>2366</v>
       </c>
@@ -15885,8 +15927,11 @@
       <c r="D1" s="5" t="s">
         <v>2424</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="5" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1863</v>
       </c>
@@ -15899,8 +15944,11 @@
       <c r="D2" s="4" t="s">
         <v>2314</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="4" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1983</v>
       </c>
@@ -15913,8 +15961,11 @@
       <c r="D3" s="4" t="s">
         <v>2313</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="4" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1973</v>
       </c>
@@ -15927,8 +15978,11 @@
       <c r="D4" s="4" t="s">
         <v>2299</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="4" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>1968</v>
       </c>
@@ -15942,7 +15996,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>1944</v>
       </c>
@@ -15956,7 +16010,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>1909</v>
       </c>
@@ -15970,7 +16024,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>2053</v>
       </c>
@@ -15984,7 +16038,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>1985</v>
       </c>
@@ -15998,7 +16052,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>1996</v>
       </c>
@@ -16012,7 +16066,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>1980</v>
       </c>
@@ -16026,7 +16080,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>2156</v>
       </c>
@@ -16040,7 +16094,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>1925</v>
       </c>
@@ -16054,7 +16108,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>2048</v>
       </c>
@@ -16068,7 +16122,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>2052</v>
       </c>
@@ -16082,7 +16136,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>2049</v>
       </c>
@@ -16204,6 +16258,9 @@
       <c r="C24" s="4" t="s">
         <v>2189</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>2432</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -16564,6 +16621,9 @@
       <c r="B57" s="4" t="s">
         <v>2337</v>
       </c>
+      <c r="C57" s="4" t="s">
+        <v>2430</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
@@ -16572,6 +16632,9 @@
       <c r="B58" s="4" t="s">
         <v>2298</v>
       </c>
+      <c r="C58" s="4" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
@@ -17289,31 +17352,49 @@
       <c r="A148" s="4" t="s">
         <v>1916</v>
       </c>
+      <c r="B148" s="4" t="s">
+        <v>2429</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>1948</v>
       </c>
+      <c r="B149" s="4" t="s">
+        <v>2431</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>1866</v>
       </c>
+      <c r="B150" s="4" t="s">
+        <v>2433</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>1884</v>
       </c>
+      <c r="B151" s="4" t="s">
+        <v>2434</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>2140</v>
       </c>
+      <c r="B152" s="4" t="s">
+        <v>2436</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>1947</v>
       </c>
+      <c r="B153" s="4" t="s">
+        <v>2437</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
@@ -17659,6 +17740,11 @@
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
         <v>2427</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" s="4" t="s">
+        <v>2140</v>
       </c>
     </row>
   </sheetData>
@@ -17675,7 +17761,7 @@
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -18051,6 +18137,9 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>2435</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>1815</v>
       </c>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AEA0F3-2005-B34A-9AE0-1CFE7D93CAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F9D832-E51D-E44B-B461-D33C54945C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44280" yWindow="1940" windowWidth="35840" windowHeight="20660" activeTab="6" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="2443">
   <si>
     <t>welded joint</t>
   </si>
@@ -7369,6 +7369,9 @@
   </si>
   <si>
     <t>demand</t>
+  </si>
+  <si>
+    <t>over-flow</t>
   </si>
 </sst>
 </file>
@@ -15900,8 +15903,8 @@
   <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17761,7 +17764,7 @@
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17937,6 +17940,9 @@
       <c r="C12" s="4" t="s">
         <v>1772</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>2435</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -18055,6 +18061,9 @@
       <c r="B23" s="10" t="s">
         <v>2202</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>2442</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -18137,9 +18146,6 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>2435</v>
-      </c>
       <c r="B34" s="4" t="s">
         <v>1815</v>
       </c>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067FFF8-0B3C-634E-9CDC-360F5C12B327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3E766-D004-9D4A-B6FF-8929B823E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="4" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="2414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="2343">
   <si>
     <t>welded joint</t>
   </si>
@@ -7072,219 +7072,6 @@
   </si>
   <si>
     <t>clean</t>
-  </si>
-  <si>
-    <t>over-heating</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>inspect</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>replace</t>
-  </si>
-  <si>
-    <t>overhaul</t>
-  </si>
-  <si>
-    <t>resample</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upgrade </t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>coat</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>cleanse</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>examine</t>
-  </si>
-  <si>
-    <t>scrutinize</t>
-  </si>
-  <si>
-    <t>reinstate</t>
-  </si>
-  <si>
-    <t>restore</t>
-  </si>
-  <si>
-    <t>fix</t>
-  </si>
-  <si>
-    <t>improve</t>
-  </si>
-  <si>
-    <t>reconstruct</t>
-  </si>
-  <si>
-    <t>renew</t>
-  </si>
-  <si>
-    <t>enhance</t>
-  </si>
-  <si>
-    <t>Normal ops [norm_ops]</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>operate</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>contain</t>
-  </si>
-  <si>
-    <t>derate</t>
-  </si>
-  <si>
-    <t>unavailable</t>
-  </si>
-  <si>
-    <t>rotate</t>
-  </si>
-  <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>transform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compress </t>
-  </si>
-  <si>
-    <t>expand</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>spin</t>
-  </si>
-  <si>
-    <t>kick-off</t>
-  </si>
-  <si>
-    <t>initiate</t>
-  </si>
-  <si>
-    <t>commence</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>engage</t>
-  </si>
-  <si>
-    <t>achieve</t>
-  </si>
-  <si>
-    <t>carry</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>perform</t>
-  </si>
-  <si>
-    <t>finish</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>execute</t>
-  </si>
-  <si>
-    <t>push</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>actuate</t>
-  </si>
-  <si>
-    <t>discharge</t>
-  </si>
-  <si>
-    <t>dislodge</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>energize</t>
-  </si>
-  <si>
-    <t>operational</t>
-  </si>
-  <si>
-    <t>abnormal ops [abn_ops]</t>
-  </si>
-  <si>
-    <t>warp</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>corrode</t>
-  </si>
-  <si>
-    <t>erode</t>
   </si>
 </sst>
 </file>
@@ -7413,9 +7200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7453,7 +7240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7559,7 +7346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7701,7 +7488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12854,9 +12641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -13954,274 +13741,193 @@
       <c r="A138" s="4" t="s">
         <v>2000</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>2344</v>
-      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>2010</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>2345</v>
-      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>1930</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>2342</v>
-      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>1962</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>2346</v>
-      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>1879</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>2347</v>
-      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>1898</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>2348</v>
-      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>1961</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>1888</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>1858</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>1853</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>1890</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>2016</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>1928</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>1998</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>1990</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>1968</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>1979</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>2037</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>1915</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>1946</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>1950</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>1951</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>1916</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>1943</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>1942</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>1965</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
         <v>1972</v>
       </c>
@@ -15340,7 +15046,7 @@
   <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -17485,24 +17191,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>2159</v>
       </c>
@@ -17512,14 +17216,8 @@
       <c r="C1" s="5" t="s">
         <v>2161</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2367</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1736</v>
       </c>
@@ -17529,14 +17227,8 @@
       <c r="C2" s="4" t="s">
         <v>1794</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2393</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1737</v>
       </c>
@@ -17546,14 +17238,8 @@
       <c r="C3" s="4" t="s">
         <v>1774</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>2402</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1738</v>
       </c>
@@ -17563,14 +17249,8 @@
       <c r="C4" s="4" t="s">
         <v>1796</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>2394</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>1739</v>
       </c>
@@ -17580,14 +17260,8 @@
       <c r="C5" s="4" t="s">
         <v>1839</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>2389</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>1740</v>
       </c>
@@ -17597,14 +17271,8 @@
       <c r="C6" s="4" t="s">
         <v>1797</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>2390</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>1741</v>
       </c>
@@ -17614,14 +17282,8 @@
       <c r="C7" s="4" t="s">
         <v>1840</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>2382</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>1742</v>
       </c>
@@ -17631,14 +17293,8 @@
       <c r="C8" s="4" t="s">
         <v>1783</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>2371</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>1743</v>
       </c>
@@ -17648,14 +17304,8 @@
       <c r="C9" s="4" t="s">
         <v>1795</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>2395</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>1744</v>
       </c>
@@ -17665,14 +17315,8 @@
       <c r="C10" s="4" t="s">
         <v>1776</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>2379</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>2280</v>
       </c>
@@ -17682,14 +17326,8 @@
       <c r="C11" s="4" t="s">
         <v>1842</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>2403</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>1745</v>
       </c>
@@ -17699,14 +17337,8 @@
       <c r="C12" s="4" t="s">
         <v>1781</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>2384</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>2338</v>
       </c>
@@ -17716,14 +17348,8 @@
       <c r="C13" s="4" t="s">
         <v>1843</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>2406</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>2337</v>
       </c>
@@ -17733,14 +17359,8 @@
       <c r="C14" s="4" t="s">
         <v>1793</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>2392</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>1746</v>
       </c>
@@ -17750,14 +17370,8 @@
       <c r="C15" s="4" t="s">
         <v>1782</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>2399</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>1740</v>
       </c>
@@ -17765,13 +17379,10 @@
         <v>1786</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>2320</v>
       </c>
@@ -17779,280 +17390,220 @@
         <v>1798</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>2321</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>1812</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C18" s="4" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>2322</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1789</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C19" s="4" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>2323</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="4" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>2324</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1748</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C21" s="4" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>2325</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1765</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>2326</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>1753</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>2336</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>1764</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>2335</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>2327</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1833</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>2328</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1778</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>2329</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>1826</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>2330</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1823</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>2331</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1827</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>2334</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>1754</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>2333</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>1779</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>2332</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>1801</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>1802</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>1820</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
         <v>1824</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>1785</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>1836</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>1818</v>
       </c>
@@ -18318,8 +17869,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E10">
-    <sortCondition ref="E10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B82">
+    <sortCondition ref="B1:B82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AEFB8C-E4EF-A443-AB1B-09F35978275D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F2FD5-232E-FD4C-AC83-8FBB228C86D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="6" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="2461">
   <si>
     <t>welded joint</t>
   </si>
@@ -7411,6 +7411,21 @@
   </si>
   <si>
     <t>instal</t>
+  </si>
+  <si>
+    <t>webcam</t>
+  </si>
+  <si>
+    <t>workstation</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>burn</t>
   </si>
 </sst>
 </file>
@@ -9528,11 +9543,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349D7A8A-9086-A146-B468-8D91D730C840}">
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A374" sqref="A374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11452,7 +11467,19 @@
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A372" s="5"/>
+      <c r="A372" s="5" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" s="3" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" s="3" t="s">
+        <v>2457</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A378">
@@ -15899,8 +15926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -17781,9 +17808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -18019,7 +18046,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>2217</v>
       </c>
@@ -18029,8 +18056,11 @@
       <c r="C17" s="3" t="s">
         <v>2216</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="3" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2218</v>
       </c>
@@ -18041,7 +18071,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>2219</v>
       </c>
@@ -18052,7 +18082,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>2220</v>
       </c>
@@ -18063,7 +18093,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>2221</v>
       </c>
@@ -18074,7 +18104,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>2222</v>
       </c>
@@ -18085,7 +18115,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2223</v>
       </c>
@@ -18096,7 +18126,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>2233</v>
       </c>
@@ -18107,23 +18137,29 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2232</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="3" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>2224</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>2225</v>
       </c>
@@ -18131,7 +18167,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>2226</v>
       </c>
@@ -18139,7 +18175,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>2227</v>
       </c>
@@ -18147,7 +18183,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>2228</v>
       </c>
@@ -18155,7 +18191,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>2231</v>
       </c>
@@ -18163,7 +18199,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
         <v>2230</v>
       </c>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F2FD5-232E-FD4C-AC83-8FBB228C86D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD394A49-8625-954B-B511-30111DAD48F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="tools_treatments" sheetId="8" r:id="rId7"/>
     <sheet name="reaction" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="2461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="2498">
   <si>
     <t>welded joint</t>
   </si>
@@ -7426,6 +7426,117 @@
   </si>
   <si>
     <t>burn</t>
+  </si>
+  <si>
+    <t>Weather [weather]</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sun </t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>hail</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>tornado</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>flood</t>
+  </si>
+  <si>
+    <t>blizzard</t>
+  </si>
+  <si>
+    <t>overcast</t>
+  </si>
+  <si>
+    <t>heat-wave</t>
+  </si>
+  <si>
+    <t>thunder-storm</t>
+  </si>
+  <si>
+    <t>cyclone</t>
+  </si>
+  <si>
+    <t>hurricane</t>
+  </si>
+  <si>
+    <t>drizzle</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>snowfall</t>
+  </si>
+  <si>
+    <t>rainy</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>monsoon</t>
+  </si>
+  <si>
+    <t>sunlight</t>
+  </si>
+  <si>
+    <t>snowy</t>
+  </si>
+  <si>
+    <t>sunshine</t>
+  </si>
+  <si>
+    <t>snow-storm</t>
+  </si>
+  <si>
+    <t>rain-storm</t>
+  </si>
+  <si>
+    <t>stormy</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>gusty</t>
+  </si>
+  <si>
+    <t>gust</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>snow-pack</t>
+  </si>
+  <si>
+    <t>rainbow</t>
   </si>
 </sst>
 </file>
@@ -13779,7 +13890,7 @@
   <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -17806,11 +17917,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17819,10 +17930,11 @@
     <col min="2" max="2" width="37.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="22" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2077</v>
       </c>
@@ -17835,8 +17947,11 @@
       <c r="D1" s="4" t="s">
         <v>2395</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="4" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1725</v>
       </c>
@@ -17849,8 +17964,11 @@
       <c r="D2" s="3" t="s">
         <v>2400</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="3" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1726</v>
       </c>
@@ -17863,8 +17981,11 @@
       <c r="D3" s="3" t="s">
         <v>2402</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="3" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1727</v>
       </c>
@@ -17877,8 +17998,11 @@
       <c r="D4" s="3" t="s">
         <v>2397</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="3" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>1728</v>
       </c>
@@ -17891,8 +18015,11 @@
       <c r="D5" s="3" t="s">
         <v>2401</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="3" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>1729</v>
       </c>
@@ -17905,8 +18032,11 @@
       <c r="D6" s="3" t="s">
         <v>2398</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="3" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>1730</v>
       </c>
@@ -17919,8 +18049,11 @@
       <c r="D7" s="3" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="3" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>1731</v>
       </c>
@@ -17933,8 +18066,11 @@
       <c r="D8" s="3" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="3" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>1732</v>
       </c>
@@ -17947,8 +18083,11 @@
       <c r="D9" s="3" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="3" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1733</v>
       </c>
@@ -17961,8 +18100,11 @@
       <c r="D10" s="3" t="s">
         <v>2399</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="3" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2185</v>
       </c>
@@ -17975,8 +18117,11 @@
       <c r="D11" s="3" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="3" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>1734</v>
       </c>
@@ -17989,8 +18134,11 @@
       <c r="D12" s="3" t="s">
         <v>2427</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" s="3" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>2235</v>
       </c>
@@ -18003,8 +18151,11 @@
       <c r="D13" s="3" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>2234</v>
       </c>
@@ -18017,8 +18168,11 @@
       <c r="D14" s="3" t="s">
         <v>2446</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="3" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>1735</v>
       </c>
@@ -18031,8 +18185,11 @@
       <c r="D15" s="3" t="s">
         <v>2447</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="3" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>1729</v>
       </c>
@@ -18045,8 +18202,11 @@
       <c r="D16" s="3" t="s">
         <v>2406</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="3" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>2217</v>
       </c>
@@ -18059,8 +18219,11 @@
       <c r="D17" s="3" t="s">
         <v>2460</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="3" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2218</v>
       </c>
@@ -18070,8 +18233,11 @@
       <c r="C18" s="3" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="3" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>2219</v>
       </c>
@@ -18081,8 +18247,11 @@
       <c r="C19" s="3" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="3" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>2220</v>
       </c>
@@ -18092,8 +18261,11 @@
       <c r="C20" s="3" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="3" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>2221</v>
       </c>
@@ -18103,8 +18275,11 @@
       <c r="C21" s="3" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="3" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>2222</v>
       </c>
@@ -18114,8 +18289,11 @@
       <c r="C22" s="3" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2223</v>
       </c>
@@ -18125,8 +18303,11 @@
       <c r="C23" s="3" t="s">
         <v>2434</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="3" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>2233</v>
       </c>
@@ -18136,8 +18317,11 @@
       <c r="C24" s="3" t="s">
         <v>2339</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" s="3" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2232</v>
       </c>
@@ -18147,8 +18331,11 @@
       <c r="C25" s="3" t="s">
         <v>2458</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="3" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>2224</v>
       </c>
@@ -18158,134 +18345,173 @@
       <c r="C26" s="3" t="s">
         <v>2459</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>2225</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>2190</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="3" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>2226</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2191</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" s="3" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>2227</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29" s="3" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>2228</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" s="3" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="E31" s="3" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
         <v>2230</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E32" s="3" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>2229</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E33" s="3" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>2195</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E34" s="3" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>2194</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E35" s="3" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>2205</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E36" s="3" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>2203</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E37" s="3" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E38" s="3" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>1811</v>
       </c>
@@ -18531,8 +18757,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B96">
-    <sortCondition ref="B1:B96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E38">
+    <sortCondition ref="E38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AEFB8C-E4EF-A443-AB1B-09F35978275D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928C73DA-E6BA-1B4D-8890-D19C8E0D65CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="6" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="40360" yWindow="5460" windowWidth="34560" windowHeight="20380" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="2509">
   <si>
     <t>welded joint</t>
   </si>
@@ -5277,9 +5277,6 @@
     <t>leaching</t>
   </si>
   <si>
-    <t>stress corrosion cracking</t>
-  </si>
-  <si>
     <t>corrosion fatigue</t>
   </si>
   <si>
@@ -6600,9 +6597,6 @@
     <t>defect</t>
   </si>
   <si>
-    <t>Acid base reaction</t>
-  </si>
-  <si>
     <t>local leakage rate testing (LLRT)</t>
   </si>
   <si>
@@ -7411,13 +7405,178 @@
   </si>
   <si>
     <t>instal</t>
+  </si>
+  <si>
+    <t>nuclear plants [plant]</t>
+  </si>
+  <si>
+    <t>pressurized water reactor (PWR) </t>
+  </si>
+  <si>
+    <t>boiling water reactor (BWR) </t>
+  </si>
+  <si>
+    <t>light water reactor (LWR) </t>
+  </si>
+  <si>
+    <t>Pressurized Heavy Water Reactor (PHWR)</t>
+  </si>
+  <si>
+    <t>Gas-Cooled Reactor (GCR)</t>
+  </si>
+  <si>
+    <t>Sodium-cooled Fast Reactor (SFR)</t>
+  </si>
+  <si>
+    <t>Liquid Metal Fast Breeder Reactor (LMFBR)</t>
+  </si>
+  <si>
+    <t>Molten Salt Reactor (MSR)</t>
+  </si>
+  <si>
+    <t>High-Temperature Gas-cooled Reactor (HTGR)</t>
+  </si>
+  <si>
+    <t>Fast Breeder Reactor (FBR)</t>
+  </si>
+  <si>
+    <t>CANDU</t>
+  </si>
+  <si>
+    <t>Advanced Gas-cooled Reactor (AGR)</t>
+  </si>
+  <si>
+    <t>RBMK</t>
+  </si>
+  <si>
+    <t>Magnox</t>
+  </si>
+  <si>
+    <t>Integral Fast Reactor (IFR)</t>
+  </si>
+  <si>
+    <t>Pebble Bed Reactor (PBR)</t>
+  </si>
+  <si>
+    <t>Pebble Bed modular Reactor (PBMR)</t>
+  </si>
+  <si>
+    <t>Small Modular Reactor (SMR)</t>
+  </si>
+  <si>
+    <t>Very High Temperature Reactor (VHTR)</t>
+  </si>
+  <si>
+    <t>Supercritical Water Reactor (SCWR)</t>
+  </si>
+  <si>
+    <t>Lead-cooled Fast Reactor (LFR)</t>
+  </si>
+  <si>
+    <t>Radiothermal Generator (RTG)</t>
+  </si>
+  <si>
+    <t>Tokamak</t>
+  </si>
+  <si>
+    <t>Stellarator</t>
+  </si>
+  <si>
+    <t>Subcritical Reactor or Accelerator-driven System (ADS)</t>
+  </si>
+  <si>
+    <t>Hydrogen Embrittlement</t>
+  </si>
+  <si>
+    <t>Thermal Aging</t>
+  </si>
+  <si>
+    <t>Chemical Degradation</t>
+  </si>
+  <si>
+    <t>Bio-fouling</t>
+  </si>
+  <si>
+    <t>stress corrosion cracking (SCC)</t>
+  </si>
+  <si>
+    <t>Dealloying</t>
+  </si>
+  <si>
+    <t>Spalling</t>
+  </si>
+  <si>
+    <t>Delamination</t>
+  </si>
+  <si>
+    <t>Swelling</t>
+  </si>
+  <si>
+    <t>Intergranular Corrosion</t>
+  </si>
+  <si>
+    <t>Microbial Induced Corrosion (MIC)</t>
+  </si>
+  <si>
+    <t>cavitation</t>
+  </si>
+  <si>
+    <t>Thermal Fatigue</t>
+  </si>
+  <si>
+    <t>Photodegradation</t>
+  </si>
+  <si>
+    <t>Frequent Mechanical Shock</t>
+  </si>
+  <si>
+    <t>Weathering</t>
+  </si>
+  <si>
+    <t>Electrochemical Migration</t>
+  </si>
+  <si>
+    <t>Electrolysis</t>
+  </si>
+  <si>
+    <t>Environmental Stress Cracking (ESC)</t>
+  </si>
+  <si>
+    <t>Sulfidation</t>
+  </si>
+  <si>
+    <t>Acid-base reaction</t>
+  </si>
+  <si>
+    <t>Gas Evolution </t>
+  </si>
+  <si>
+    <t>Isomerization</t>
+  </si>
+  <si>
+    <t>Polymerization</t>
+  </si>
+  <si>
+    <t>Electrophilic Addition </t>
+  </si>
+  <si>
+    <t>Nucleophilic Substitution</t>
+  </si>
+  <si>
+    <t>Electrochemical</t>
+  </si>
+  <si>
+    <t>biochemical</t>
+  </si>
+  <si>
+    <t>organic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7464,12 +7623,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -7496,7 +7649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7511,7 +7664,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7835,8 +7987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B95B5C9-73CA-064E-9671-6487BA59A617}">
   <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7852,16 +8004,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2059</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2060</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -8062,7 +8214,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>248</v>
@@ -8113,7 +8265,7 @@
         <v>184</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -8348,7 +8500,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>1685</v>
@@ -8393,7 +8545,7 @@
         <v>976</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -8510,10 +8662,10 @@
         <v>128</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -8730,7 +8882,7 @@
         <v>78</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>1663</v>
@@ -8947,7 +9099,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>272</v>
@@ -8994,7 +9146,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -9015,7 +9167,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -9155,7 +9307,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
@@ -9210,7 +9362,7 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
@@ -9265,7 +9417,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
@@ -9295,7 +9447,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
@@ -9425,7 +9577,7 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
@@ -9485,7 +9637,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
@@ -9544,10 +9696,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -9963,12 +10115,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
@@ -9988,7 +10140,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
@@ -10198,7 +10350,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
@@ -10633,7 +10785,7 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
@@ -10693,7 +10845,7 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
@@ -10833,7 +10985,7 @@
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
@@ -10898,7 +11050,7 @@
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
@@ -11028,7 +11180,7 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
@@ -11093,7 +11245,7 @@
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.15">
@@ -11138,7 +11290,7 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
@@ -11183,7 +11335,7 @@
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.15">
@@ -11484,22 +11636,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2063</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2064</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2065</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2066</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>2067</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -11513,7 +11665,7 @@
         <v>301</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>447</v>
@@ -11539,7 +11691,7 @@
         <v>303</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -11553,7 +11705,7 @@
         <v>304</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>457</v>
@@ -11656,7 +11808,7 @@
         <v>788</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>398</v>
@@ -11664,7 +11816,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>436</v>
@@ -11713,7 +11865,7 @@
         <v>351</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -11724,7 +11876,7 @@
         <v>984</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>450</v>
@@ -11741,7 +11893,7 @@
         <v>316</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>353</v>
@@ -11758,7 +11910,7 @@
         <v>985</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>434</v>
@@ -11825,7 +11977,7 @@
         <v>318</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
@@ -11836,7 +11988,7 @@
         <v>409</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
@@ -11858,7 +12010,7 @@
         <v>319</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
@@ -11935,7 +12087,7 @@
         <v>1015</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -11997,7 +12149,7 @@
         <v>328</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
@@ -12053,7 +12205,7 @@
         <v>416</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
@@ -12061,7 +12213,7 @@
         <v>1047</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
@@ -12069,7 +12221,7 @@
         <v>335</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.15">
@@ -12077,7 +12229,7 @@
         <v>1014</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.15">
@@ -12085,7 +12237,7 @@
         <v>1020</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.15">
@@ -12213,12 +12365,12 @@
         <v>1013</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C65" s="3" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>464</v>
@@ -12237,7 +12389,7 @@
         <v>1034</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.15">
@@ -12293,7 +12445,7 @@
         <v>1016</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.15">
@@ -12325,7 +12477,7 @@
         <v>949</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.15">
@@ -12457,7 +12609,7 @@
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C102" s="3" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
@@ -12480,251 +12632,333 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5F177-E900-DE4B-B6FB-6A6D8767D4B2}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2069</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1620</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1626</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1621</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1617</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>988</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2252</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>991</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1618</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1630</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1625</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1622</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1623</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1624</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1619</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>989</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>990</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>998</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1614</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2127</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>1835</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>1069</v>
       </c>
@@ -12907,16 +13141,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2071</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2072</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2073</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -12946,13 +13180,13 @@
         <v>808</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>845</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -12979,7 +13213,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1591</v>
@@ -12990,7 +13224,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>947</v>
@@ -12999,7 +13233,7 @@
         <v>832</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -13026,7 +13260,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>848</v>
@@ -13034,13 +13268,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>849</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -13135,7 +13369,7 @@
         <v>830</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
@@ -13228,7 +13462,7 @@
         <v>868</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
@@ -13236,7 +13470,7 @@
         <v>869</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
@@ -13264,7 +13498,7 @@
         <v>823</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
@@ -13277,7 +13511,7 @@
         <v>872</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
@@ -13285,7 +13519,7 @@
         <v>873</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
@@ -13360,7 +13594,7 @@
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C67" s="3" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
@@ -13375,20 +13609,20 @@
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C70" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C71" s="3" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C72" s="3" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
@@ -13446,7 +13680,7 @@
         <v>824</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
@@ -13534,7 +13768,7 @@
         <v>903</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -13579,10 +13813,10 @@
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C109" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>2182</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
@@ -13630,7 +13864,7 @@
         <v>822</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.15">
@@ -13663,7 +13897,7 @@
         <v>829</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
@@ -13671,7 +13905,7 @@
         <v>922</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
@@ -13679,7 +13913,7 @@
         <v>923</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
@@ -13687,7 +13921,7 @@
         <v>831</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
@@ -13695,7 +13929,7 @@
         <v>924</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
@@ -13703,7 +13937,7 @@
         <v>925</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
@@ -13726,7 +13960,7 @@
         <v>929</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.15">
@@ -13766,16 +14000,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2074</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2075</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2076</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -14136,7 +14370,7 @@
         <v>1478</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -14147,7 +14381,7 @@
         <v>1473</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -14158,7 +14392,7 @@
         <v>1510</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -14169,7 +14403,7 @@
         <v>1524</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -14180,7 +14414,7 @@
         <v>1309</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -14191,7 +14425,7 @@
         <v>1497</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -14202,7 +14436,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -14334,7 +14568,7 @@
         <v>1438</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -15899,9 +16133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -15917,163 +16151,163 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2360</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2362</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>352</v>
@@ -16081,142 +16315,142 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -16224,209 +16458,209 @@
         <v>349</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>934</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -16434,237 +16668,237 @@
         <v>310</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -16672,212 +16906,212 @@
         <v>933</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>267</v>
@@ -16885,106 +17119,106 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -16992,180 +17226,180 @@
         <v>311</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>1652</v>
@@ -17173,87 +17407,87 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>956</v>
@@ -17261,135 +17495,135 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>1021</v>
@@ -17397,75 +17631,75 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
@@ -17475,213 +17709,213 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B205" s="12"/>
+        <v>1884</v>
+      </c>
+      <c r="B205" s="11"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
@@ -17691,82 +17925,82 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
   </sheetData>
@@ -17779,11 +18013,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17797,327 +18031,327 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2077</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2078</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>1725</v>
+        <v>2500</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>1726</v>
+        <v>2224</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>1727</v>
+        <v>2507</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>1728</v>
+        <v>2223</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>1729</v>
+        <v>2217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>1730</v>
+        <v>2230</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1736</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>1732</v>
+        <v>2219</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>2185</v>
+        <v>1733</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1740</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>1734</v>
+        <v>2222</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>2235</v>
+        <v>1726</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>1735</v>
+        <v>2215</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>2217</v>
+        <v>2506</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>2218</v>
+        <v>2497</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>2219</v>
+        <v>2231</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>2220</v>
+        <v>2504</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>2223</v>
+        <v>2501</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1737</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>2232</v>
+        <v>2216</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>2224</v>
+        <v>2502</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1742</v>
@@ -18125,208 +18359,232 @@
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>2226</v>
+        <v>2221</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>2228</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>2227</v>
+        <v>2505</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>2228</v>
+        <v>2508</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>2231</v>
+        <v>1730</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
-        <v>2230</v>
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>2232</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>2229</v>
+        <v>2503</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>1814</v>
-      </c>
-    </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>2226</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>1743</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>1725</v>
+      </c>
       <c r="B41" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
@@ -18336,27 +18594,27 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
@@ -18366,122 +18624,122 @@
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
-        <v>1744</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" s="3" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
@@ -18491,12 +18749,102 @@
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
-        <v>2454</v>
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="3" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="3" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="3" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="3" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="3" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="3" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B103" s="3" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B104" s="3" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="3" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="3" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B107" s="3" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B108" s="3" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="3" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B110" s="3" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B111" s="3" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B112" s="3" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B113" s="3" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B114" s="3" t="s">
+        <v>2499</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B96">
-    <sortCondition ref="B1:B96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A115">
+    <sortCondition ref="A1:A115"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55563083-E0F3-0E43-B385-21B81F4783C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F5926-E597-AD4F-B89B-6030F0BC3B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="760" windowWidth="34560" windowHeight="20380" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="39240" yWindow="6880" windowWidth="34560" windowHeight="20380" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="2532">
   <si>
     <t>welded joint</t>
   </si>
@@ -7576,6 +7576,69 @@
   </si>
   <si>
     <t>Sulfidation</t>
+  </si>
+  <si>
+    <t>inoperable</t>
+  </si>
+  <si>
+    <t>non-functional</t>
+  </si>
+  <si>
+    <t>loss of</t>
+  </si>
+  <si>
+    <t>incident</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>unexpected</t>
+  </si>
+  <si>
+    <t>adverse</t>
+  </si>
+  <si>
+    <t>anomaly</t>
+  </si>
+  <si>
+    <t>anomalous</t>
+  </si>
+  <si>
+    <t>not run</t>
+  </si>
+  <si>
+    <t>break-down</t>
+  </si>
+  <si>
+    <t>short-circuit</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>troublehsoot</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>necessitate</t>
+  </si>
+  <si>
+    <t>unworkable</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>unfeasible</t>
+  </si>
+  <si>
+    <t>event [event]</t>
   </si>
 </sst>
 </file>
@@ -16152,8 +16215,8 @@
   <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -16260,6 +16323,9 @@
       <c r="D5" s="3" t="s">
         <v>2241</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>2525</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -16274,6 +16340,9 @@
       <c r="D6" s="3" t="s">
         <v>2347</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>2526</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -16288,6 +16357,9 @@
       <c r="D7" s="3" t="s">
         <v>2343</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>2527</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -16537,6 +16609,9 @@
       <c r="C25" s="3" t="s">
         <v>2377</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>2304</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -16548,6 +16623,9 @@
       <c r="C26" s="3" t="s">
         <v>2386</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>2524</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
@@ -16558,6 +16636,9 @@
       </c>
       <c r="C27" s="3" t="s">
         <v>2035</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2349</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -18031,11 +18112,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -18044,10 +18125,11 @@
     <col min="2" max="2" width="37.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2076</v>
       </c>
@@ -18060,8 +18142,11 @@
       <c r="D1" s="4" t="s">
         <v>2393</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="4" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2482</v>
       </c>
@@ -18074,8 +18159,11 @@
       <c r="D2" s="3" t="s">
         <v>2398</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2224</v>
       </c>
@@ -18088,8 +18176,11 @@
       <c r="D3" s="3" t="s">
         <v>2400</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2483</v>
       </c>
@@ -18102,8 +18193,11 @@
       <c r="D4" s="3" t="s">
         <v>2395</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="3" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2223</v>
       </c>
@@ -18116,8 +18210,11 @@
       <c r="D5" s="3" t="s">
         <v>2399</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="3" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>2217</v>
       </c>
@@ -18130,8 +18227,11 @@
       <c r="D6" s="3" t="s">
         <v>2396</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>2230</v>
       </c>
@@ -18144,8 +18244,11 @@
       <c r="D7" s="3" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="3" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>1735</v>
       </c>
@@ -18158,8 +18261,11 @@
       <c r="D8" s="3" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="3" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>2219</v>
       </c>
@@ -18172,8 +18278,11 @@
       <c r="D9" s="3" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="3" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1729</v>
       </c>
@@ -18186,8 +18295,11 @@
       <c r="D10" s="3" t="s">
         <v>2397</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="3" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>1733</v>
       </c>
@@ -18200,8 +18312,11 @@
       <c r="D11" s="3" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="3" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>2222</v>
       </c>
@@ -18214,8 +18329,11 @@
       <c r="D12" s="3" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" s="3" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>1726</v>
       </c>
@@ -18228,8 +18346,11 @@
       <c r="D13" s="3" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" s="3" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>2227</v>
       </c>
@@ -18242,8 +18363,11 @@
       <c r="D14" s="3" t="s">
         <v>2444</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="3" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>2215</v>
       </c>
@@ -18256,8 +18380,11 @@
       <c r="D15" s="3" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="3" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>1728</v>
       </c>
@@ -18269,6 +18396,9 @@
       </c>
       <c r="D16" s="3" t="s">
         <v>2404</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -18366,6 +18496,9 @@
       <c r="B25" s="3" t="s">
         <v>1753</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>2522</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -18858,6 +18991,16 @@
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" s="3" t="s">
         <v>2510</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B115" s="3" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B116" s="3" t="s">
+        <v>2425</v>
       </c>
     </row>
   </sheetData>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B0BC78-640F-A048-8DFD-CF7E55806FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81684E1-F528-8046-95A0-6F59D9D1B861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57080" yWindow="3060" windowWidth="34560" windowHeight="20380" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="51200" yWindow="3060" windowWidth="34560" windowHeight="20380" activeTab="5" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="2824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="2830">
   <si>
     <t>welded joint</t>
   </si>
@@ -8516,6 +8516,24 @@
   </si>
   <si>
     <t>unhealthy</t>
+  </si>
+  <si>
+    <t>States of matter [states_matter]</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>vapour</t>
+  </si>
+  <si>
+    <t>composite</t>
   </si>
 </sst>
 </file>
@@ -14864,11 +14882,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B764EBF-B7C9-B24F-97A3-0359B610261D}">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -14876,10 +14894,12 @@
     <col min="1" max="1" width="33.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="25.83203125" style="3"/>
+    <col min="4" max="4" width="25.83203125" style="3"/>
+    <col min="5" max="5" width="34.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="25.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2136</v>
       </c>
@@ -14892,8 +14912,11 @@
       <c r="D1" s="4" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="4" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1313</v>
       </c>
@@ -14906,8 +14929,11 @@
       <c r="D2" s="3" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="3" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1201</v>
       </c>
@@ -14920,8 +14946,11 @@
       <c r="D3" s="3" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="3" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1097</v>
       </c>
@@ -14934,8 +14963,11 @@
       <c r="D4" s="3" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="3" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>1094</v>
       </c>
@@ -14945,8 +14977,14 @@
       <c r="C5" s="3" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>1375</v>
       </c>
@@ -14956,8 +14994,14 @@
       <c r="C6" s="3" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>1163</v>
       </c>
@@ -14967,8 +15011,11 @@
       <c r="C7" s="3" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="3" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>1184</v>
       </c>
@@ -14979,7 +15026,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>1352</v>
       </c>
@@ -14990,7 +15037,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1342</v>
       </c>
@@ -15001,7 +15048,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>1119</v>
       </c>
@@ -15012,7 +15059,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>1309</v>
       </c>
@@ -15023,7 +15070,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>1291</v>
       </c>
@@ -15034,7 +15081,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>1120</v>
       </c>
@@ -15045,7 +15092,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>1180</v>
       </c>
@@ -15056,7 +15103,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>1244</v>
       </c>
@@ -18980,11 +19027,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -19070,7 +19117,7 @@
         <v>2177</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1738</v>
+        <v>2726</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1806</v>
@@ -19087,7 +19134,7 @@
         <v>2171</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1768</v>
@@ -19104,7 +19151,7 @@
         <v>2184</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1791</v>
+        <v>1740</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1807</v>
@@ -19121,7 +19168,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1719</v>
+        <v>2442</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1754</v>
@@ -19138,7 +19185,7 @@
         <v>2173</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1727</v>
+        <v>2466</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1766</v>
@@ -19155,7 +19202,7 @@
         <v>1712</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1737</v>
+        <v>2449</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1747</v>
@@ -19172,7 +19219,7 @@
         <v>1716</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1723</v>
+        <v>1791</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1809</v>
@@ -19189,7 +19236,7 @@
         <v>2176</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2141</v>
+        <v>2441</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1752</v>
@@ -19206,7 +19253,7 @@
         <v>1709</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2153</v>
+        <v>1719</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2068</v>
@@ -19223,7 +19270,7 @@
         <v>2181</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1779</v>
+        <v>1727</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1810</v>
@@ -19240,7 +19287,7 @@
         <v>2169</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1780</v>
+        <v>1737</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1735</v>
@@ -19257,7 +19304,7 @@
         <v>1711</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2167</v>
@@ -19274,7 +19321,7 @@
         <v>2430</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1757</v>
+        <v>2443</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2168</v>
@@ -19291,7 +19338,7 @@
         <v>2431</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1769</v>
+        <v>2141</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1764</v>
@@ -19308,7 +19355,7 @@
         <v>2185</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1781</v>
+        <v>2445</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1753</v>
@@ -19325,7 +19372,7 @@
         <v>2432</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1760</v>
+        <v>2153</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1805</v>
@@ -19342,7 +19389,7 @@
         <v>2172</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>1755</v>
@@ -19359,7 +19406,7 @@
         <v>2179</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>2158</v>
+        <v>1780</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1746</v>
@@ -19371,12 +19418,12 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>2433</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>2156</v>
+      <c r="B23" s="3" t="s">
+        <v>1730</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2379</v>
@@ -19393,7 +19440,7 @@
         <v>2183</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1720</v>
+        <v>1757</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2467</v>
@@ -19410,7 +19457,7 @@
         <v>2170</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1736</v>
+        <v>1769</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2769</v>
@@ -19427,7 +19474,7 @@
         <v>2434</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1725</v>
+        <v>1781</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2770</v>
@@ -19439,12 +19486,12 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>2175</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>2146</v>
+      <c r="B27" s="3" t="s">
+        <v>1760</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2466</v>
@@ -19461,7 +19508,7 @@
         <v>2182</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2147</v>
+        <v>2453</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2772</v>
@@ -19478,7 +19525,7 @@
         <v>2435</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1802</v>
+        <v>1770</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2773</v>
@@ -19495,7 +19542,7 @@
         <v>2436</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1800</v>
+        <v>2158</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>2768</v>
@@ -19509,7 +19556,7 @@
         <v>1713</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>2154</v>
+        <v>2454</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>2771</v>
@@ -19518,12 +19565,12 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>2186</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>1749</v>
+      <c r="B32" s="9" t="s">
+        <v>2156</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2744</v>
@@ -19537,7 +19584,7 @@
         <v>2437</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1795</v>
+        <v>1720</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2783</v>
@@ -19548,7 +19595,7 @@
         <v>1717</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>2151</v>
+        <v>1736</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>2784</v>
@@ -19559,18 +19606,18 @@
         <v>1715</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>2150</v>
+        <v>1725</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>2817</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>1714</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>2161</v>
+      <c r="B36" s="9" t="s">
+        <v>2146</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>2818</v>
@@ -19581,7 +19628,7 @@
         <v>2174</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>2159</v>
+        <v>2147</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>2819</v>
@@ -19592,7 +19639,7 @@
         <v>1710</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1792</v>
+        <v>2452</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>2820</v>
@@ -19603,7 +19650,7 @@
         <v>2187</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1796</v>
+        <v>1802</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>2821</v>
@@ -19614,7 +19661,7 @@
         <v>2180</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1726</v>
+        <v>1800</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>2822</v>
@@ -19625,7 +19672,7 @@
         <v>1708</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1750</v>
+        <v>2154</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>2823</v>
@@ -19633,387 +19680,382 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
-        <v>2155</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
-        <v>2148</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
-        <v>1771</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
-        <v>1772</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
-        <v>1773</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
-        <v>1789</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
-        <v>1793</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>1797</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
-        <v>1756</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
-        <v>1778</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>1782</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>2149</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>1775</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>1762</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
-        <v>1751</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
-        <v>1776</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
-        <v>1787</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
-        <v>2348</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
-        <v>2145</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
-        <v>1722</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
-        <v>1758</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
-        <v>1742</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
-        <v>1732</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
-        <v>1784</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
-        <v>1721</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
-        <v>1808</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
-        <v>1804</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
-        <v>1739</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
-        <v>1801</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
-        <v>2438</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
-        <v>2162</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
-        <v>1761</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
-        <v>2157</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
-        <v>1733</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
-        <v>1759</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
-        <v>1783</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
-        <v>1748</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
-        <v>1777</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
-        <v>2152</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
-        <v>1728</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
-        <v>1788</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
-        <v>2160</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" s="3" t="s">
-        <v>2144</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
-        <v>1729</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" s="3" t="s">
-        <v>1734</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" s="3" t="s">
-        <v>1724</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
-        <v>2399</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
-        <v>2439</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" s="3" t="s">
-        <v>2440</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" s="3" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" s="3" t="s">
-        <v>2442</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B101" s="3" t="s">
-        <v>2443</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B102" s="3" t="s">
-        <v>2444</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B103" s="3" t="s">
-        <v>2445</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B104" s="3" t="s">
-        <v>2446</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B105" s="3" t="s">
-        <v>2447</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B106" s="3" t="s">
-        <v>2448</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B107" s="3" t="s">
-        <v>2449</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B108" s="3" t="s">
-        <v>2450</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B109" s="3" t="s">
-        <v>2451</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B110" s="3" t="s">
-        <v>2452</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
-        <v>2755</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B112" s="3" t="s">
-        <v>2453</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" s="3" t="s">
-        <v>2454</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" s="3" t="s">
-        <v>2455</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B115" s="3" t="s">
-        <v>2466</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B116" s="3" t="s">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B117" s="3" t="s">
-        <v>2726</v>
+        <v>1724</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E116">
-    <sortCondition ref="E1:E116"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B117">
+    <sortCondition ref="B1:B117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/tag_keywords_lists.xlsx
+++ b/data/tag_keywords_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/DACKAR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81684E1-F528-8046-95A0-6F59D9D1B861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C5A24-A9F7-884C-A6D4-59B0084D29C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="3060" windowWidth="34560" windowHeight="20380" activeTab="5" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="42660" yWindow="2000" windowWidth="34560" windowHeight="20380" activeTab="2" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -10655,7 +10655,7 @@
   <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -12592,9 +12592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37BA1C4-E891-264D-AF0F-C27B89E85559}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -14884,7 +14884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B764EBF-B7C9-B24F-97A3-0359B610261D}">
   <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
